--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2461.560646354055</v>
+        <v>2559.040110408909</v>
       </c>
       <c r="AB2" t="n">
-        <v>3368.015872733179</v>
+        <v>3501.391575943478</v>
       </c>
       <c r="AC2" t="n">
-        <v>3046.577164879363</v>
+        <v>3167.223678169242</v>
       </c>
       <c r="AD2" t="n">
-        <v>2461560.646354055</v>
+        <v>2559040.110408909</v>
       </c>
       <c r="AE2" t="n">
-        <v>3368015.872733179</v>
+        <v>3501391.575943478</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.02833932948552e-06</v>
+        <v>1.902696993622879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.778125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3046577.164879363</v>
+        <v>3167223.678169242</v>
       </c>
     </row>
     <row r="3">
@@ -3083,28 +3083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>811.7884944511983</v>
+        <v>860.5708969059108</v>
       </c>
       <c r="AB3" t="n">
-        <v>1110.724831688909</v>
+        <v>1177.471066855154</v>
       </c>
       <c r="AC3" t="n">
-        <v>1004.718812664611</v>
+        <v>1065.094880825519</v>
       </c>
       <c r="AD3" t="n">
-        <v>811788.4944511983</v>
+        <v>860570.8969059108</v>
       </c>
       <c r="AE3" t="n">
-        <v>1110724.83168891</v>
+        <v>1177471.066855154</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.938074619409156e-06</v>
+        <v>3.585945461807342e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.840624999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>1004718.812664611</v>
+        <v>1065094.880825519</v>
       </c>
     </row>
     <row r="4">
@@ -3189,28 +3189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>608.2637897727114</v>
+        <v>656.9608513728525</v>
       </c>
       <c r="AB4" t="n">
-        <v>832.253351871531</v>
+        <v>898.8828199155779</v>
       </c>
       <c r="AC4" t="n">
-        <v>752.8242600438271</v>
+        <v>813.0947051727958</v>
       </c>
       <c r="AD4" t="n">
-        <v>608263.7897727115</v>
+        <v>656960.8513728526</v>
       </c>
       <c r="AE4" t="n">
-        <v>832253.351871531</v>
+        <v>898882.8199155779</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.273900571526572e-06</v>
+        <v>4.207311397304558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.683333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>752824.260043827</v>
+        <v>813094.7051727958</v>
       </c>
     </row>
     <row r="5">
@@ -3295,28 +3295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>521.5342881383268</v>
+        <v>558.0358386333407</v>
       </c>
       <c r="AB5" t="n">
-        <v>713.5862214997962</v>
+        <v>763.5292532218303</v>
       </c>
       <c r="AC5" t="n">
-        <v>645.4825540444068</v>
+        <v>690.6590929143755</v>
       </c>
       <c r="AD5" t="n">
-        <v>521534.2881383268</v>
+        <v>558035.8386333408</v>
       </c>
       <c r="AE5" t="n">
-        <v>713586.2214997963</v>
+        <v>763529.2532218304</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.454651377205755e-06</v>
+        <v>4.541747710980079e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.190625</v>
       </c>
       <c r="AH5" t="n">
-        <v>645482.5540444069</v>
+        <v>690659.0929143755</v>
       </c>
     </row>
     <row r="6">
@@ -3401,28 +3401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>464.6575657984503</v>
+        <v>513.2692865440198</v>
       </c>
       <c r="AB6" t="n">
-        <v>635.7649807704794</v>
+        <v>702.2776816923288</v>
       </c>
       <c r="AC6" t="n">
-        <v>575.088463307499</v>
+        <v>635.2532854045289</v>
       </c>
       <c r="AD6" t="n">
-        <v>464657.5657984503</v>
+        <v>513269.2865440198</v>
       </c>
       <c r="AE6" t="n">
-        <v>635764.9807704794</v>
+        <v>702277.6816923288</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.543786762411551e-06</v>
+        <v>4.706671510540807e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.973958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>575088.463307499</v>
+        <v>635253.285404529</v>
       </c>
     </row>
     <row r="7">
@@ -3507,28 +3507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>465.3858369065376</v>
+        <v>513.997557652107</v>
       </c>
       <c r="AB7" t="n">
-        <v>636.7614334296184</v>
+        <v>703.2741343514675</v>
       </c>
       <c r="AC7" t="n">
-        <v>575.9898159233796</v>
+        <v>636.1546380204095</v>
       </c>
       <c r="AD7" t="n">
-        <v>465385.8369065376</v>
+        <v>513997.5576521071</v>
       </c>
       <c r="AE7" t="n">
-        <v>636761.4334296184</v>
+        <v>703274.1343514675</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.544516184549077e-06</v>
+        <v>4.708021132468473e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.971875</v>
       </c>
       <c r="AH7" t="n">
-        <v>575989.8159233796</v>
+        <v>636154.6380204095</v>
       </c>
     </row>
     <row r="8">
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>465.9792005194258</v>
+        <v>514.5909212649952</v>
       </c>
       <c r="AB8" t="n">
-        <v>637.5732997021271</v>
+        <v>704.0860006239764</v>
       </c>
       <c r="AC8" t="n">
-        <v>576.7241988183017</v>
+        <v>636.8890209153316</v>
       </c>
       <c r="AD8" t="n">
-        <v>465979.2005194258</v>
+        <v>514590.9212649953</v>
       </c>
       <c r="AE8" t="n">
-        <v>637573.2997021271</v>
+        <v>704086.0006239763</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.548892717374239e-06</v>
+        <v>4.716118864034467e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.962499999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>576724.1988183017</v>
+        <v>636889.0209153316</v>
       </c>
     </row>
   </sheetData>
@@ -3910,28 +3910,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1465.586780213391</v>
+        <v>1536.169053009694</v>
       </c>
       <c r="AB2" t="n">
-        <v>2005.280489813433</v>
+        <v>2101.854269323445</v>
       </c>
       <c r="AC2" t="n">
-        <v>1813.899334294482</v>
+        <v>1901.25624783021</v>
       </c>
       <c r="AD2" t="n">
-        <v>1465586.780213391</v>
+        <v>1536169.053009694</v>
       </c>
       <c r="AE2" t="n">
-        <v>2005280.489813433</v>
+        <v>2101854.269323445</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.361860562478142e-06</v>
+        <v>2.595916411290541e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.54375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1813899.334294482</v>
+        <v>1901256.24783021</v>
       </c>
     </row>
     <row r="3">
@@ -4016,28 +4016,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>627.447511992523</v>
+        <v>662.7387378992257</v>
       </c>
       <c r="AB3" t="n">
-        <v>858.5013669387708</v>
+        <v>906.7883791633252</v>
       </c>
       <c r="AC3" t="n">
-        <v>776.5672013923698</v>
+        <v>820.2457689414603</v>
       </c>
       <c r="AD3" t="n">
-        <v>627447.511992523</v>
+        <v>662738.7378992257</v>
       </c>
       <c r="AE3" t="n">
-        <v>858501.3669387709</v>
+        <v>906788.3791633252</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.204873982469599e-06</v>
+        <v>4.202830094077438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.130208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>776567.2013923698</v>
+        <v>820245.7689414603</v>
       </c>
     </row>
     <row r="4">
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>478.1775093112651</v>
+        <v>513.3833943633963</v>
       </c>
       <c r="AB4" t="n">
-        <v>654.2635639425247</v>
+        <v>702.4338090448815</v>
       </c>
       <c r="AC4" t="n">
-        <v>591.8215676645286</v>
+        <v>635.3945121816802</v>
       </c>
       <c r="AD4" t="n">
-        <v>478177.5093112651</v>
+        <v>513383.3943633963</v>
       </c>
       <c r="AE4" t="n">
-        <v>654263.5639425247</v>
+        <v>702433.8090448815</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.511684989065128e-06</v>
+        <v>4.787659223527091e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.258333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>591821.5676645286</v>
+        <v>635394.5121816802</v>
       </c>
     </row>
     <row r="5">
@@ -4228,28 +4228,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>443.5436059075705</v>
+        <v>478.7494909597017</v>
       </c>
       <c r="AB5" t="n">
-        <v>606.8759293656082</v>
+        <v>655.0461744679649</v>
       </c>
       <c r="AC5" t="n">
-        <v>548.9565424226702</v>
+        <v>592.5294869398216</v>
       </c>
       <c r="AD5" t="n">
-        <v>443543.6059075705</v>
+        <v>478749.4909597017</v>
       </c>
       <c r="AE5" t="n">
-        <v>606875.9293656081</v>
+        <v>655046.1744679649</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.593782966235796e-06</v>
+        <v>4.944150638392124e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.060416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>548956.5424226702</v>
+        <v>592529.4869398216</v>
       </c>
     </row>
     <row r="6">
@@ -4334,28 +4334,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>445.3919992116238</v>
+        <v>480.5978842637551</v>
       </c>
       <c r="AB6" t="n">
-        <v>609.4049826295714</v>
+        <v>657.5752277319282</v>
       </c>
       <c r="AC6" t="n">
-        <v>551.2442263926692</v>
+        <v>594.8171709098208</v>
       </c>
       <c r="AD6" t="n">
-        <v>445391.9992116239</v>
+        <v>480597.8842637551</v>
       </c>
       <c r="AE6" t="n">
-        <v>609404.9826295713</v>
+        <v>657575.2277319282</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.593933881635008e-06</v>
+        <v>4.944438306434156e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.060416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>551244.2263926693</v>
+        <v>594817.1709098208</v>
       </c>
     </row>
     <row r="7">
@@ -4440,28 +4440,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>446.2924711141338</v>
+        <v>481.4983561662648</v>
       </c>
       <c r="AB7" t="n">
-        <v>610.6370480126019</v>
+        <v>658.8072931149587</v>
       </c>
       <c r="AC7" t="n">
-        <v>552.358705184758</v>
+        <v>595.9316497019096</v>
       </c>
       <c r="AD7" t="n">
-        <v>446292.4711141338</v>
+        <v>481498.3561662649</v>
       </c>
       <c r="AE7" t="n">
-        <v>610637.0480126019</v>
+        <v>658807.2931149587</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.598008597413699e-06</v>
+        <v>4.952205343569001e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.051041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>552358.7051847581</v>
+        <v>595931.6497019096</v>
       </c>
     </row>
   </sheetData>
@@ -4737,28 +4737,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.7388506401799</v>
+        <v>468.1292676223036</v>
       </c>
       <c r="AB2" t="n">
-        <v>597.5653630041493</v>
+        <v>640.5151163665506</v>
       </c>
       <c r="AC2" t="n">
-        <v>540.5345634472869</v>
+        <v>579.3852526291381</v>
       </c>
       <c r="AD2" t="n">
-        <v>436738.8506401799</v>
+        <v>468129.2676223036</v>
       </c>
       <c r="AE2" t="n">
-        <v>597565.3630041493</v>
+        <v>640515.1163665506</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.457455370357877e-06</v>
+        <v>5.23373681558102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.138541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>540534.563447287</v>
+        <v>579385.2526291381</v>
       </c>
     </row>
     <row r="3">
@@ -4843,28 +4843,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>378.8697164794306</v>
+        <v>420.6381455896225</v>
       </c>
       <c r="AB3" t="n">
-        <v>518.3862606393951</v>
+        <v>575.5356680410011</v>
       </c>
       <c r="AC3" t="n">
-        <v>468.9122034836568</v>
+        <v>520.6073516525507</v>
       </c>
       <c r="AD3" t="n">
-        <v>378869.7164794306</v>
+        <v>420638.1455896225</v>
       </c>
       <c r="AE3" t="n">
-        <v>518386.2606393951</v>
+        <v>575535.6680410012</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.618276988852482e-06</v>
+        <v>5.576244775485075e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.699999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>468912.2034836567</v>
+        <v>520607.3516525507</v>
       </c>
     </row>
     <row r="4">
@@ -4949,28 +4949,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>381.6473974150739</v>
+        <v>423.4158265252658</v>
       </c>
       <c r="AB4" t="n">
-        <v>522.1868062381766</v>
+        <v>579.3362136397827</v>
       </c>
       <c r="AC4" t="n">
-        <v>472.3500303445898</v>
+        <v>524.0451785134837</v>
       </c>
       <c r="AD4" t="n">
-        <v>381647.3974150739</v>
+        <v>423415.8265252658</v>
       </c>
       <c r="AE4" t="n">
-        <v>522186.8062381766</v>
+        <v>579336.2136397827</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.618276988852482e-06</v>
+        <v>5.576244775485075e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.699999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>472350.0303445898</v>
+        <v>524045.1785134838</v>
       </c>
     </row>
   </sheetData>
@@ -5246,28 +5246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>690.1529963600279</v>
+        <v>733.9549291988087</v>
       </c>
       <c r="AB2" t="n">
-        <v>944.2977770211205</v>
+        <v>1004.229513936035</v>
       </c>
       <c r="AC2" t="n">
-        <v>854.175322512478</v>
+        <v>908.387258570954</v>
       </c>
       <c r="AD2" t="n">
-        <v>690152.9963600279</v>
+        <v>733954.9291988087</v>
       </c>
       <c r="AE2" t="n">
-        <v>944297.7770211205</v>
+        <v>1004229.513936035</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.001860337188826e-06</v>
+        <v>4.064468590995293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.383333333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>854175.322512478</v>
+        <v>908387.2585709541</v>
       </c>
     </row>
     <row r="3">
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>398.3113728579805</v>
+        <v>431.141509650561</v>
       </c>
       <c r="AB3" t="n">
-        <v>544.9871926018727</v>
+        <v>589.9068341248962</v>
       </c>
       <c r="AC3" t="n">
-        <v>492.974379834278</v>
+        <v>533.606953815457</v>
       </c>
       <c r="AD3" t="n">
-        <v>398311.3728579805</v>
+        <v>431141.509650561</v>
       </c>
       <c r="AE3" t="n">
-        <v>544987.1926018727</v>
+        <v>589906.8341248962</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.636604400324507e-06</v>
+        <v>5.35321849028078e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.364583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>492974.379834278</v>
+        <v>533606.9538154571</v>
       </c>
     </row>
     <row r="4">
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>398.0863238987927</v>
+        <v>430.9164606913732</v>
       </c>
       <c r="AB4" t="n">
-        <v>544.6792706874526</v>
+        <v>589.5989122104761</v>
       </c>
       <c r="AC4" t="n">
-        <v>492.695845555199</v>
+        <v>533.328419536378</v>
       </c>
       <c r="AD4" t="n">
-        <v>398086.3238987927</v>
+        <v>430916.4606913732</v>
       </c>
       <c r="AE4" t="n">
-        <v>544679.2706874525</v>
+        <v>589598.9122104761</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.644498425475179e-06</v>
+        <v>5.369246090551082e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.345833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>492695.845555199</v>
+        <v>533328.419536378</v>
       </c>
     </row>
   </sheetData>
@@ -5755,28 +5755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>382.0364610450416</v>
+        <v>412.176015444573</v>
       </c>
       <c r="AB2" t="n">
-        <v>522.7191402609742</v>
+        <v>563.9574082537102</v>
       </c>
       <c r="AC2" t="n">
-        <v>472.8315591553871</v>
+        <v>510.1341047291692</v>
       </c>
       <c r="AD2" t="n">
-        <v>382036.4610450416</v>
+        <v>412176.015444573</v>
       </c>
       <c r="AE2" t="n">
-        <v>522719.1402609742</v>
+        <v>563957.4082537103</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.529187754076742e-06</v>
+        <v>5.632007117156073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>472831.5591553871</v>
+        <v>510134.1047291692</v>
       </c>
     </row>
     <row r="3">
@@ -5861,28 +5861,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>383.6051122946577</v>
+        <v>413.7446666941893</v>
       </c>
       <c r="AB3" t="n">
-        <v>524.8654381047081</v>
+        <v>566.1037060974443</v>
       </c>
       <c r="AC3" t="n">
-        <v>474.7730173452629</v>
+        <v>512.075562919045</v>
       </c>
       <c r="AD3" t="n">
-        <v>383605.1122946577</v>
+        <v>413744.6666941893</v>
       </c>
       <c r="AE3" t="n">
-        <v>524865.4381047081</v>
+        <v>566103.7060974443</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.535484051645843e-06</v>
+        <v>5.646027742024175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.185416666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>474773.0173452629</v>
+        <v>512075.562919045</v>
       </c>
     </row>
     <row r="4">
@@ -5967,28 +5967,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>387.0015789838443</v>
+        <v>417.1411333833758</v>
       </c>
       <c r="AB4" t="n">
-        <v>529.5126336703881</v>
+        <v>570.7509016631243</v>
       </c>
       <c r="AC4" t="n">
-        <v>478.9766910885344</v>
+        <v>516.2792366623166</v>
       </c>
       <c r="AD4" t="n">
-        <v>387001.5789838443</v>
+        <v>417141.1333833758</v>
       </c>
       <c r="AE4" t="n">
-        <v>529512.6336703881</v>
+        <v>570750.9016631243</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.535309154491145e-06</v>
+        <v>5.645638280222283e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.185416666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>478976.6910885344</v>
+        <v>516279.2366623166</v>
       </c>
     </row>
   </sheetData>
@@ -6264,28 +6264,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1663.646919958653</v>
+        <v>1734.825050578183</v>
       </c>
       <c r="AB2" t="n">
-        <v>2276.275110809584</v>
+        <v>2373.664169280727</v>
       </c>
       <c r="AC2" t="n">
-        <v>2059.030609006099</v>
+        <v>2147.124992423159</v>
       </c>
       <c r="AD2" t="n">
-        <v>1663646.919958653</v>
+        <v>1734825.050578183</v>
       </c>
       <c r="AE2" t="n">
-        <v>2276275.110809584</v>
+        <v>2373664.169280727</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.273949839832381e-06</v>
+        <v>2.408738072802937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2059030.6090061</v>
+        <v>2147124.992423159</v>
       </c>
     </row>
     <row r="3">
@@ -6370,28 +6370,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>671.8543229911842</v>
+        <v>719.1926521009593</v>
       </c>
       <c r="AB3" t="n">
-        <v>919.2607248373746</v>
+        <v>984.031115145056</v>
       </c>
       <c r="AC3" t="n">
-        <v>831.5277714494254</v>
+        <v>890.1165666119554</v>
       </c>
       <c r="AD3" t="n">
-        <v>671854.3229911842</v>
+        <v>719192.6521009593</v>
       </c>
       <c r="AE3" t="n">
-        <v>919260.7248373746</v>
+        <v>984031.115145056</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.132572289994121e-06</v>
+        <v>4.032190206632669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.305208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>831527.7714494254</v>
+        <v>890116.5666119554</v>
       </c>
     </row>
     <row r="4">
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>509.2410187505477</v>
+        <v>544.7874583873026</v>
       </c>
       <c r="AB4" t="n">
-        <v>696.7660279826678</v>
+        <v>745.4022348919148</v>
       </c>
       <c r="AC4" t="n">
-        <v>630.2676561892634</v>
+        <v>674.2620917724369</v>
       </c>
       <c r="AD4" t="n">
-        <v>509241.0187505477</v>
+        <v>544787.4583873027</v>
       </c>
       <c r="AE4" t="n">
-        <v>696766.0279826678</v>
+        <v>745402.2348919148</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.452630127190797e-06</v>
+        <v>4.637343937062146e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.352083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>630267.6561892634</v>
+        <v>674262.0917724369</v>
       </c>
     </row>
     <row r="5">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>451.0313134981187</v>
+        <v>486.5777531348737</v>
       </c>
       <c r="AB5" t="n">
-        <v>617.1209412253412</v>
+        <v>665.7571481345882</v>
       </c>
       <c r="AC5" t="n">
-        <v>558.2237847294748</v>
+        <v>602.2182203126484</v>
       </c>
       <c r="AD5" t="n">
-        <v>451031.3134981187</v>
+        <v>486577.7531348736</v>
       </c>
       <c r="AE5" t="n">
-        <v>617120.9412253412</v>
+        <v>665757.1481345881</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.582298419176554e-06</v>
+        <v>4.88251603252119e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.033333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>558223.7847294748</v>
+        <v>602218.2203126485</v>
       </c>
     </row>
     <row r="6">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>452.9241209201465</v>
+        <v>488.4705605569014</v>
       </c>
       <c r="AB6" t="n">
-        <v>619.7107638449296</v>
+        <v>668.3469707541766</v>
       </c>
       <c r="AC6" t="n">
-        <v>560.5664383130885</v>
+        <v>604.5608738962621</v>
       </c>
       <c r="AD6" t="n">
-        <v>452924.1209201465</v>
+        <v>488470.5605569014</v>
       </c>
       <c r="AE6" t="n">
-        <v>619710.7638449296</v>
+        <v>668346.9707541766</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.581700180228523e-06</v>
+        <v>4.881384904053099e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.034375</v>
       </c>
       <c r="AH6" t="n">
-        <v>560566.4383130885</v>
+        <v>604560.8738962621</v>
       </c>
     </row>
     <row r="7">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>453.5931240730431</v>
+        <v>489.1395637097981</v>
       </c>
       <c r="AB7" t="n">
-        <v>620.626123473059</v>
+        <v>669.262330382306</v>
       </c>
       <c r="AC7" t="n">
-        <v>561.3944373030246</v>
+        <v>605.3888728861981</v>
       </c>
       <c r="AD7" t="n">
-        <v>453593.1240730431</v>
+        <v>489139.5637097981</v>
       </c>
       <c r="AE7" t="n">
-        <v>620626.123473059</v>
+        <v>669262.330382306</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.586037412601749e-06</v>
+        <v>4.88958558544677e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.025000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>561394.4373030246</v>
+        <v>605388.8728861981</v>
       </c>
     </row>
   </sheetData>
@@ -7091,28 +7091,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>381.590871611124</v>
+        <v>420.789227550319</v>
       </c>
       <c r="AB2" t="n">
-        <v>522.1094651394698</v>
+        <v>575.7423850448919</v>
       </c>
       <c r="AC2" t="n">
-        <v>472.2800705717946</v>
+        <v>520.7943398757193</v>
       </c>
       <c r="AD2" t="n">
-        <v>381590.871611124</v>
+        <v>420789.227550319</v>
       </c>
       <c r="AE2" t="n">
-        <v>522109.4651394698</v>
+        <v>575742.3850448919</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.44710433413262e-06</v>
+        <v>5.610150025770191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.618749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>472280.0705717946</v>
+        <v>520794.3398757193</v>
       </c>
     </row>
     <row r="3">
@@ -7197,28 +7197,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.7478706887445</v>
+        <v>423.9462266279395</v>
       </c>
       <c r="AB3" t="n">
-        <v>526.4290105544397</v>
+        <v>580.0619304598619</v>
       </c>
       <c r="AC3" t="n">
-        <v>476.18736463488</v>
+        <v>524.7016339388045</v>
       </c>
       <c r="AD3" t="n">
-        <v>384747.8706887445</v>
+        <v>423946.2266279395</v>
       </c>
       <c r="AE3" t="n">
-        <v>526429.0105544397</v>
+        <v>580061.9304598619</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449789132626768e-06</v>
+        <v>5.61630510552345e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.610416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>476187.36463488</v>
+        <v>524701.6339388045</v>
       </c>
     </row>
   </sheetData>
@@ -7494,28 +7494,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1011.193931231981</v>
+        <v>1068.170384565265</v>
       </c>
       <c r="AB2" t="n">
-        <v>1383.560147439375</v>
+        <v>1461.517844513694</v>
       </c>
       <c r="AC2" t="n">
-        <v>1251.515108806623</v>
+        <v>1322.032632686484</v>
       </c>
       <c r="AD2" t="n">
-        <v>1011193.931231981</v>
+        <v>1068170.384565265</v>
       </c>
       <c r="AE2" t="n">
-        <v>1383560.147439375</v>
+        <v>1461517.844513694</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.651766293624683e-06</v>
+        <v>3.237439108202918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.805208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1251515.108806623</v>
+        <v>1322032.632686484</v>
       </c>
     </row>
     <row r="3">
@@ -7600,28 +7600,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>491.592491002596</v>
+        <v>537.0883128146523</v>
       </c>
       <c r="AB3" t="n">
-        <v>672.6185337198267</v>
+        <v>734.867924257084</v>
       </c>
       <c r="AC3" t="n">
-        <v>608.4247648876468</v>
+        <v>664.7331609595967</v>
       </c>
       <c r="AD3" t="n">
-        <v>491592.491002596</v>
+        <v>537088.3128146523</v>
       </c>
       <c r="AE3" t="n">
-        <v>672618.5337198267</v>
+        <v>734867.924257084</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.437921841075158e-06</v>
+        <v>4.778293116587927e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.64375</v>
       </c>
       <c r="AH3" t="n">
-        <v>608424.7648876468</v>
+        <v>664733.1609595967</v>
       </c>
     </row>
     <row r="4">
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.5504352817536</v>
+        <v>453.6510559357039</v>
       </c>
       <c r="AB4" t="n">
-        <v>574.0474148113827</v>
+        <v>620.7053884033247</v>
       </c>
       <c r="AC4" t="n">
-        <v>519.2611352223905</v>
+        <v>561.4661372995947</v>
       </c>
       <c r="AD4" t="n">
-        <v>419550.4352817535</v>
+        <v>453651.0559357039</v>
       </c>
       <c r="AE4" t="n">
-        <v>574047.4148113828</v>
+        <v>620705.3884033248</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.626686246653654e-06</v>
+        <v>5.148268742810119e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.165624999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>519261.1352223905</v>
+        <v>561466.1372995947</v>
       </c>
     </row>
     <row r="5">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>421.5616185937754</v>
+        <v>455.6622392477258</v>
       </c>
       <c r="AB5" t="n">
-        <v>576.7992045460369</v>
+        <v>623.4571781379788</v>
       </c>
       <c r="AC5" t="n">
-        <v>521.7502980069303</v>
+        <v>563.9553000841346</v>
       </c>
       <c r="AD5" t="n">
-        <v>421561.6185937754</v>
+        <v>455662.2392477258</v>
       </c>
       <c r="AE5" t="n">
-        <v>576799.2045460369</v>
+        <v>623457.1781379788</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.626997225905019e-06</v>
+        <v>5.148878257845082e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.165624999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>521750.2980069303</v>
+        <v>563955.3000841346</v>
       </c>
     </row>
     <row r="6">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>422.6243738889838</v>
+        <v>456.7249945429342</v>
       </c>
       <c r="AB6" t="n">
-        <v>578.2533132263957</v>
+        <v>624.9112868183377</v>
       </c>
       <c r="AC6" t="n">
-        <v>523.06562859569</v>
+        <v>565.2706306728942</v>
       </c>
       <c r="AD6" t="n">
-        <v>422624.3738889838</v>
+        <v>456724.9945429342</v>
       </c>
       <c r="AE6" t="n">
-        <v>578253.3132263956</v>
+        <v>624911.2868183376</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.63088446654708e-06</v>
+        <v>5.156497195782111e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.15625</v>
       </c>
       <c r="AH6" t="n">
-        <v>523065.62859569</v>
+        <v>565270.6306728942</v>
       </c>
     </row>
   </sheetData>
@@ -8215,28 +8215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1292.175917590191</v>
+        <v>1361.965840331647</v>
       </c>
       <c r="AB2" t="n">
-        <v>1768.012097225047</v>
+        <v>1863.501748434</v>
       </c>
       <c r="AC2" t="n">
-        <v>1599.275504086451</v>
+        <v>1685.651757004589</v>
       </c>
       <c r="AD2" t="n">
-        <v>1292175.917590191</v>
+        <v>1361965.840331647</v>
       </c>
       <c r="AE2" t="n">
-        <v>1768012.097225047</v>
+        <v>1863501.748434</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.453408077493005e-06</v>
+        <v>2.794472188891786e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.91875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1599275.504086451</v>
+        <v>1685651.757004589</v>
       </c>
     </row>
     <row r="3">
@@ -8321,28 +8321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>574.7442112280737</v>
+        <v>621.2423794375204</v>
       </c>
       <c r="AB3" t="n">
-        <v>786.3903857273193</v>
+        <v>850.0112308258883</v>
       </c>
       <c r="AC3" t="n">
-        <v>711.3383910193417</v>
+        <v>768.88735195412</v>
       </c>
       <c r="AD3" t="n">
-        <v>574744.2112280737</v>
+        <v>621242.3794375204</v>
       </c>
       <c r="AE3" t="n">
-        <v>786390.3857273193</v>
+        <v>850011.2308258883</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.275939546086793e-06</v>
+        <v>4.375955977972159e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.972916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>711338.3910193417</v>
+        <v>768887.3519541201</v>
       </c>
     </row>
     <row r="4">
@@ -8427,28 +8427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>446.0700404449884</v>
+        <v>480.9224208969816</v>
       </c>
       <c r="AB4" t="n">
-        <v>610.3327085581287</v>
+        <v>658.0192730710544</v>
       </c>
       <c r="AC4" t="n">
-        <v>552.0834114606765</v>
+        <v>595.2188371850024</v>
       </c>
       <c r="AD4" t="n">
-        <v>446070.0404449883</v>
+        <v>480922.4208969816</v>
       </c>
       <c r="AE4" t="n">
-        <v>610332.7085581287</v>
+        <v>658019.2730710544</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.577437930296295e-06</v>
+        <v>4.955647850280005e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.157291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>552083.4114606766</v>
+        <v>595218.8371850024</v>
       </c>
     </row>
     <row r="5">
@@ -8533,28 +8533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>435.0890248902847</v>
+        <v>469.9414053422778</v>
       </c>
       <c r="AB5" t="n">
-        <v>595.3079986279674</v>
+        <v>642.9945631408931</v>
       </c>
       <c r="AC5" t="n">
-        <v>538.4926387589372</v>
+        <v>581.6280644832628</v>
       </c>
       <c r="AD5" t="n">
-        <v>435089.0248902847</v>
+        <v>469941.4053422778</v>
       </c>
       <c r="AE5" t="n">
-        <v>595307.9986279674</v>
+        <v>642994.5631408931</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.607603003602754e-06</v>
+        <v>5.013646329672098e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.085416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>538492.6387589372</v>
+        <v>581628.0644832628</v>
       </c>
     </row>
     <row r="6">
@@ -8639,28 +8639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>437.0323089964573</v>
+        <v>471.8846894484504</v>
       </c>
       <c r="AB6" t="n">
-        <v>597.966885673677</v>
+        <v>645.6534501866026</v>
       </c>
       <c r="AC6" t="n">
-        <v>540.8977653567756</v>
+        <v>584.0331910811013</v>
       </c>
       <c r="AD6" t="n">
-        <v>437032.3089964573</v>
+        <v>471884.6894484505</v>
       </c>
       <c r="AE6" t="n">
-        <v>597966.885673677</v>
+        <v>645653.4501866027</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.607603003602754e-06</v>
+        <v>5.013646329672098e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.085416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>540897.7653567756</v>
+        <v>584033.1910811013</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2147.470123490609</v>
+        <v>2232.120111566198</v>
       </c>
       <c r="AB2" t="n">
-        <v>2938.263362655307</v>
+        <v>3054.08521083441</v>
       </c>
       <c r="AC2" t="n">
-        <v>2657.839631202015</v>
+        <v>2762.607604747773</v>
       </c>
       <c r="AD2" t="n">
-        <v>2147470.123490609</v>
+        <v>2232120.111566199</v>
       </c>
       <c r="AE2" t="n">
-        <v>2938263.362655307</v>
+        <v>3054085.21083441</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.10729126537453e-06</v>
+        <v>2.062799643309684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2657839.631202015</v>
+        <v>2762607.604747773</v>
       </c>
     </row>
     <row r="3">
@@ -9042,28 +9042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>764.0504164208995</v>
+        <v>812.4218381783778</v>
       </c>
       <c r="AB3" t="n">
-        <v>1045.40748727249</v>
+        <v>1111.59140051759</v>
       </c>
       <c r="AC3" t="n">
-        <v>945.6352639258266</v>
+        <v>1005.50267738052</v>
       </c>
       <c r="AD3" t="n">
-        <v>764050.4164208996</v>
+        <v>812421.8381783778</v>
       </c>
       <c r="AE3" t="n">
-        <v>1045407.48727249</v>
+        <v>1111591.40051759</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.999300404253933e-06</v>
+        <v>3.724545013338441e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.661458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>945635.2639258266</v>
+        <v>1005502.67738052</v>
       </c>
     </row>
     <row r="4">
@@ -9148,28 +9148,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>574.811479276403</v>
+        <v>611.1753864490832</v>
       </c>
       <c r="AB4" t="n">
-        <v>786.4824248387002</v>
+        <v>836.2371268947226</v>
       </c>
       <c r="AC4" t="n">
-        <v>711.42164604711</v>
+        <v>756.4278291700685</v>
       </c>
       <c r="AD4" t="n">
-        <v>574811.479276403</v>
+        <v>611175.3864490832</v>
       </c>
       <c r="AE4" t="n">
-        <v>786482.4248387002</v>
+        <v>836237.1268947226</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.331046631967736e-06</v>
+        <v>4.342563073804131e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.570833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>711421.64604711</v>
+        <v>756427.8291700685</v>
       </c>
     </row>
     <row r="5">
@@ -9254,28 +9254,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>490.970306674291</v>
+        <v>527.1636216463791</v>
       </c>
       <c r="AB5" t="n">
-        <v>671.7672336730045</v>
+        <v>721.2885239541798</v>
       </c>
       <c r="AC5" t="n">
-        <v>607.6547117224862</v>
+        <v>652.4497595627937</v>
       </c>
       <c r="AD5" t="n">
-        <v>490970.306674291</v>
+        <v>527163.621646379</v>
       </c>
       <c r="AE5" t="n">
-        <v>671767.2336730045</v>
+        <v>721288.5239541798</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.508683796452787e-06</v>
+        <v>4.673487638096043e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.106249999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>607654.7117224862</v>
+        <v>652449.7595627937</v>
       </c>
     </row>
     <row r="6">
@@ -9360,28 +9360,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>455.3169581691101</v>
+        <v>503.517698217445</v>
       </c>
       <c r="AB6" t="n">
-        <v>622.9847493334906</v>
+        <v>688.9351283341949</v>
       </c>
       <c r="AC6" t="n">
-        <v>563.5279592216888</v>
+        <v>623.1841266125041</v>
       </c>
       <c r="AD6" t="n">
-        <v>455316.9581691101</v>
+        <v>503517.698217445</v>
       </c>
       <c r="AE6" t="n">
-        <v>622984.7493334906</v>
+        <v>688935.1283341949</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.56176907491231e-06</v>
+        <v>4.772381485537583e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.979166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>563527.9592216888</v>
+        <v>623184.1266125041</v>
       </c>
     </row>
     <row r="7">
@@ -9466,28 +9466,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>456.8674479386369</v>
+        <v>505.0681879869718</v>
       </c>
       <c r="AB7" t="n">
-        <v>625.1061978389381</v>
+        <v>691.0565768396425</v>
       </c>
       <c r="AC7" t="n">
-        <v>565.4469396592481</v>
+        <v>625.1031070500634</v>
       </c>
       <c r="AD7" t="n">
-        <v>456867.4479386369</v>
+        <v>505068.1879869718</v>
       </c>
       <c r="AE7" t="n">
-        <v>625106.1978389381</v>
+        <v>691056.5768396425</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.562063176178014e-06</v>
+        <v>4.77292937388906e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.979166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>565446.9396592481</v>
+        <v>625103.1070500634</v>
       </c>
     </row>
     <row r="8">
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>457.4849248864519</v>
+        <v>505.6856649347869</v>
       </c>
       <c r="AB8" t="n">
-        <v>625.9510570400993</v>
+        <v>691.9014360408034</v>
       </c>
       <c r="AC8" t="n">
-        <v>566.2111666840176</v>
+        <v>625.8673340748329</v>
       </c>
       <c r="AD8" t="n">
-        <v>457484.924886452</v>
+        <v>505685.6649347869</v>
       </c>
       <c r="AE8" t="n">
-        <v>625951.0570400993</v>
+        <v>691901.4360408034</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.566327644530718e-06</v>
+        <v>4.780873754985472e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.96875</v>
       </c>
       <c r="AH8" t="n">
-        <v>566211.1666840176</v>
+        <v>625867.334074833</v>
       </c>
     </row>
   </sheetData>
@@ -9869,28 +9869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>783.4096065960626</v>
+        <v>838.9266831870362</v>
       </c>
       <c r="AB2" t="n">
-        <v>1071.895585337342</v>
+        <v>1147.856498769672</v>
       </c>
       <c r="AC2" t="n">
-        <v>969.5953750876478</v>
+        <v>1038.306685553808</v>
       </c>
       <c r="AD2" t="n">
-        <v>783409.6065960627</v>
+        <v>838926.6831870362</v>
       </c>
       <c r="AE2" t="n">
-        <v>1071895.585337342</v>
+        <v>1147856.498769672</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.876900059301856e-06</v>
+        <v>3.762241204403021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.829166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>969595.3750876478</v>
+        <v>1038306.685553808</v>
       </c>
     </row>
     <row r="3">
@@ -9975,28 +9975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>414.5424952209985</v>
+        <v>447.8186943423053</v>
       </c>
       <c r="AB3" t="n">
-        <v>567.1953302855352</v>
+        <v>612.7252939656028</v>
       </c>
       <c r="AC3" t="n">
-        <v>513.0630040267288</v>
+        <v>554.2476518748762</v>
       </c>
       <c r="AD3" t="n">
-        <v>414542.4952209985</v>
+        <v>447818.6943423052</v>
       </c>
       <c r="AE3" t="n">
-        <v>567195.3302855352</v>
+        <v>612725.2939656028</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.607742479409733e-06</v>
+        <v>5.227212902405011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.355208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>513063.0040267288</v>
+        <v>554247.6518748761</v>
       </c>
     </row>
     <row r="4">
@@ -10081,28 +10081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>405.5495616413461</v>
+        <v>438.8257607626527</v>
       </c>
       <c r="AB4" t="n">
-        <v>554.8908018216258</v>
+        <v>600.4207655016934</v>
       </c>
       <c r="AC4" t="n">
-        <v>501.9328024899007</v>
+        <v>543.117450338048</v>
       </c>
       <c r="AD4" t="n">
-        <v>405549.5616413461</v>
+        <v>438825.7607626527</v>
       </c>
       <c r="AE4" t="n">
-        <v>554890.8018216258</v>
+        <v>600420.7655016934</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.639400651286413e-06</v>
+        <v>5.290671624194822e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.278125</v>
       </c>
       <c r="AH4" t="n">
-        <v>501932.8024899007</v>
+        <v>543117.450338048</v>
       </c>
     </row>
     <row r="5">
@@ -10187,28 +10187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>407.4940283083634</v>
+        <v>440.7702274296699</v>
       </c>
       <c r="AB5" t="n">
-        <v>557.5513068992537</v>
+        <v>603.0812705793213</v>
       </c>
       <c r="AC5" t="n">
-        <v>504.3393926969622</v>
+        <v>545.5240405451095</v>
       </c>
       <c r="AD5" t="n">
-        <v>407494.0283083634</v>
+        <v>440770.2274296699</v>
       </c>
       <c r="AE5" t="n">
-        <v>557551.3068992537</v>
+        <v>603081.2705793213</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.63955973757725e-06</v>
+        <v>5.290990512244018e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.278125</v>
       </c>
       <c r="AH5" t="n">
-        <v>504339.3926969622</v>
+        <v>545524.0405451095</v>
       </c>
     </row>
     <row r="6">
@@ -10293,28 +10293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>408.860856680726</v>
+        <v>442.1370558020326</v>
       </c>
       <c r="AB6" t="n">
-        <v>559.4214617785323</v>
+        <v>604.9514254585999</v>
       </c>
       <c r="AC6" t="n">
-        <v>506.0310626193413</v>
+        <v>547.2157104674886</v>
       </c>
       <c r="AD6" t="n">
-        <v>408860.856680726</v>
+        <v>442137.0558020326</v>
       </c>
       <c r="AE6" t="n">
-        <v>559421.4617785322</v>
+        <v>604951.4254585999</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.643218722266515e-06</v>
+        <v>5.298324937375503e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.269791666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>506031.0626193413</v>
+        <v>547215.7104674886</v>
       </c>
     </row>
   </sheetData>
@@ -10590,28 +10590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>512.5633819820863</v>
+        <v>555.1443780095744</v>
       </c>
       <c r="AB2" t="n">
-        <v>701.3118319283801</v>
+        <v>759.5730292341532</v>
       </c>
       <c r="AC2" t="n">
-        <v>634.3796149864728</v>
+        <v>687.080445391487</v>
       </c>
       <c r="AD2" t="n">
-        <v>512563.3819820863</v>
+        <v>555144.3780095745</v>
       </c>
       <c r="AE2" t="n">
-        <v>701311.8319283801</v>
+        <v>759573.0292341532</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.289189496067484e-06</v>
+        <v>4.789127586915733e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.540624999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>634379.6149864728</v>
+        <v>687080.4453914871</v>
       </c>
     </row>
     <row r="3">
@@ -10696,28 +10696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.5686166767823</v>
+        <v>417.58970455197</v>
       </c>
       <c r="AB3" t="n">
-        <v>527.5519914240306</v>
+        <v>571.3646565255582</v>
       </c>
       <c r="AC3" t="n">
-        <v>477.2031697863906</v>
+        <v>516.8344156220901</v>
       </c>
       <c r="AD3" t="n">
-        <v>385568.6166767823</v>
+        <v>417589.70455197</v>
       </c>
       <c r="AE3" t="n">
-        <v>527551.9914240306</v>
+        <v>571364.6565255582</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.629899906080134e-06</v>
+        <v>5.501915071981518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.563541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>477203.1697863906</v>
+        <v>516834.4156220901</v>
       </c>
     </row>
     <row r="4">
@@ -10802,28 +10802,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>386.9874908822954</v>
+        <v>419.0085787574833</v>
       </c>
       <c r="AB4" t="n">
-        <v>529.4933577083258</v>
+        <v>573.3060228098535</v>
       </c>
       <c r="AC4" t="n">
-        <v>478.9592547972374</v>
+        <v>518.5905006329369</v>
       </c>
       <c r="AD4" t="n">
-        <v>386987.4908822954</v>
+        <v>419008.5787574833</v>
       </c>
       <c r="AE4" t="n">
-        <v>529493.3577083258</v>
+        <v>573306.0228098535</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.633545640039413e-06</v>
+        <v>5.509542175420938e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.554166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>478959.2547972374</v>
+        <v>518590.5006329369</v>
       </c>
     </row>
     <row r="5">
@@ -10908,28 +10908,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>388.6729938185003</v>
+        <v>420.6940816936882</v>
       </c>
       <c r="AB5" t="n">
-        <v>531.7995371847829</v>
+        <v>575.6122022863105</v>
       </c>
       <c r="AC5" t="n">
-        <v>481.0453357412047</v>
+        <v>520.6765815769041</v>
       </c>
       <c r="AD5" t="n">
-        <v>388672.9938185003</v>
+        <v>420694.0816936882</v>
       </c>
       <c r="AE5" t="n">
-        <v>531799.5371847829</v>
+        <v>575612.2022863105</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.636859943638758e-06</v>
+        <v>5.51647590582041e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>481045.3357412047</v>
+        <v>520676.5815769042</v>
       </c>
     </row>
   </sheetData>
@@ -19498,28 +19498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>379.0532677516609</v>
+        <v>420.0294677086653</v>
       </c>
       <c r="AB2" t="n">
-        <v>518.6374035877712</v>
+        <v>574.7028481113027</v>
       </c>
       <c r="AC2" t="n">
-        <v>469.1393777015213</v>
+        <v>519.8540148880724</v>
       </c>
       <c r="AD2" t="n">
-        <v>379053.2677516609</v>
+        <v>420029.4677086652</v>
       </c>
       <c r="AE2" t="n">
-        <v>518637.4035877712</v>
+        <v>574702.8481113027</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.563313897888488e-06</v>
+        <v>5.572274706879074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.966666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>469139.3777015213</v>
+        <v>519854.0148880724</v>
       </c>
     </row>
     <row r="3">
@@ -19604,28 +19604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>375.51673462401</v>
+        <v>416.4929345810143</v>
       </c>
       <c r="AB3" t="n">
-        <v>513.7985629416889</v>
+        <v>569.8640074652204</v>
       </c>
       <c r="AC3" t="n">
-        <v>464.7623492153456</v>
+        <v>515.4769864018969</v>
       </c>
       <c r="AD3" t="n">
-        <v>375516.73462401</v>
+        <v>416492.9345810143</v>
       </c>
       <c r="AE3" t="n">
-        <v>513798.562941689</v>
+        <v>569864.0074652204</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.586284810903739e-06</v>
+        <v>5.622210158676158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.904166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>464762.3492153456</v>
+        <v>515476.9864018968</v>
       </c>
     </row>
     <row r="4">
@@ -19710,28 +19710,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>378.4658599135608</v>
+        <v>419.4420598705651</v>
       </c>
       <c r="AB4" t="n">
-        <v>517.8336862690778</v>
+        <v>573.8991307926092</v>
       </c>
       <c r="AC4" t="n">
-        <v>468.4123660356996</v>
+        <v>519.1270032222508</v>
       </c>
       <c r="AD4" t="n">
-        <v>378465.8599135608</v>
+        <v>419442.0598705651</v>
       </c>
       <c r="AE4" t="n">
-        <v>517833.6862690778</v>
+        <v>573899.1307926092</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.586284810903739e-06</v>
+        <v>5.622210158676158e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.904166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>468412.3660356996</v>
+        <v>519127.0032222507</v>
       </c>
     </row>
   </sheetData>
@@ -20007,28 +20007,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>398.5278118177034</v>
+        <v>436.4920698358451</v>
       </c>
       <c r="AB2" t="n">
-        <v>545.2833339351786</v>
+        <v>597.2277066204578</v>
       </c>
       <c r="AC2" t="n">
-        <v>493.2422578543701</v>
+        <v>540.2291325149513</v>
       </c>
       <c r="AD2" t="n">
-        <v>398527.8118177034</v>
+        <v>436492.0698358451</v>
       </c>
       <c r="AE2" t="n">
-        <v>545283.3339351786</v>
+        <v>597227.7066204577</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.292160155189676e-06</v>
+        <v>5.451964733831862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.361458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>493242.2578543701</v>
+        <v>540229.1325149513</v>
       </c>
     </row>
     <row r="3">
@@ -20113,28 +20113,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>403.6438993707792</v>
+        <v>441.6081573889209</v>
       </c>
       <c r="AB3" t="n">
-        <v>552.2833906311502</v>
+        <v>604.2277633164293</v>
       </c>
       <c r="AC3" t="n">
-        <v>499.5742389639195</v>
+        <v>546.5611136245005</v>
       </c>
       <c r="AD3" t="n">
-        <v>403643.8993707792</v>
+        <v>441608.1573889209</v>
       </c>
       <c r="AE3" t="n">
-        <v>552283.3906311501</v>
+        <v>604227.7633164293</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.292160155189676e-06</v>
+        <v>5.451964733831862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.361458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>499574.2389639195</v>
+        <v>546561.1136245006</v>
       </c>
     </row>
   </sheetData>
@@ -20410,28 +20410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1149.808723915762</v>
+        <v>1207.339754075509</v>
       </c>
       <c r="AB2" t="n">
-        <v>1573.219022042384</v>
+        <v>1651.935515596872</v>
       </c>
       <c r="AC2" t="n">
-        <v>1423.073206605424</v>
+        <v>1494.277108494363</v>
       </c>
       <c r="AD2" t="n">
-        <v>1149808.723915762</v>
+        <v>1207339.754075509</v>
       </c>
       <c r="AE2" t="n">
-        <v>1573219.022042384</v>
+        <v>1651935.515596872</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.549622099979027e-06</v>
+        <v>3.007162857691387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.34270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1423073.206605424</v>
+        <v>1494277.108494363</v>
       </c>
     </row>
     <row r="3">
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>531.9152223518896</v>
+        <v>577.9229067019324</v>
       </c>
       <c r="AB3" t="n">
-        <v>727.7898736652879</v>
+        <v>790.7396171087996</v>
       </c>
       <c r="AC3" t="n">
-        <v>658.3306295821753</v>
+        <v>715.2725378619579</v>
       </c>
       <c r="AD3" t="n">
-        <v>531915.2223518896</v>
+        <v>577922.9067019324</v>
       </c>
       <c r="AE3" t="n">
-        <v>727789.873665288</v>
+        <v>790739.6171087996</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.356976598895714e-06</v>
+        <v>4.573897393914872e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AH3" t="n">
-        <v>658330.6295821753</v>
+        <v>715272.5378619579</v>
       </c>
     </row>
     <row r="4">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>427.876227415228</v>
+        <v>462.3607449726681</v>
       </c>
       <c r="AB4" t="n">
-        <v>585.4391309164282</v>
+        <v>632.6223691880608</v>
       </c>
       <c r="AC4" t="n">
-        <v>529.5656419307443</v>
+        <v>572.2457781638233</v>
       </c>
       <c r="AD4" t="n">
-        <v>427876.227415228</v>
+        <v>462360.7449726681</v>
       </c>
       <c r="AE4" t="n">
-        <v>585439.1309164282</v>
+        <v>632622.3691880609</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.613477446941095e-06</v>
+        <v>5.071657346627763e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.132291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>529565.6419307443</v>
+        <v>572245.7781638233</v>
       </c>
     </row>
     <row r="5">
@@ -20728,28 +20728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>428.3738076816581</v>
+        <v>462.8583252390982</v>
       </c>
       <c r="AB5" t="n">
-        <v>586.1199421886498</v>
+        <v>633.3031804602826</v>
       </c>
       <c r="AC5" t="n">
-        <v>530.1814775306699</v>
+        <v>572.8616137637488</v>
       </c>
       <c r="AD5" t="n">
-        <v>428373.8076816581</v>
+        <v>462858.3252390982</v>
       </c>
       <c r="AE5" t="n">
-        <v>586119.9421886498</v>
+        <v>633303.1804602826</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.617170320578222e-06</v>
+        <v>5.078823656684818e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.123958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>530181.4775306699</v>
+        <v>572861.6137637488</v>
       </c>
     </row>
     <row r="6">
@@ -20834,28 +20834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>429.1564704978706</v>
+        <v>463.6409880553108</v>
       </c>
       <c r="AB6" t="n">
-        <v>587.1908159824385</v>
+        <v>634.3740542540712</v>
       </c>
       <c r="AC6" t="n">
-        <v>531.1501486325599</v>
+        <v>573.8302848656391</v>
       </c>
       <c r="AD6" t="n">
-        <v>429156.4704978706</v>
+        <v>463640.9880553108</v>
       </c>
       <c r="AE6" t="n">
-        <v>587190.8159824385</v>
+        <v>634374.0542540712</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.621170933685108e-06</v>
+        <v>5.086587159246627e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.114583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>531150.1486325599</v>
+        <v>573830.2848656391</v>
       </c>
     </row>
   </sheetData>
@@ -21131,28 +21131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1880.27748946585</v>
+        <v>1964.09996354015</v>
       </c>
       <c r="AB2" t="n">
-        <v>2572.678613075554</v>
+        <v>2687.368220090576</v>
       </c>
       <c r="AC2" t="n">
-        <v>2327.145777020733</v>
+        <v>2430.889568910116</v>
       </c>
       <c r="AD2" t="n">
-        <v>1880277.48946585</v>
+        <v>1964099.96354015</v>
       </c>
       <c r="AE2" t="n">
-        <v>2572678.613075553</v>
+        <v>2687368.220090576</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.189303932624777e-06</v>
+        <v>2.231600657386804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.9875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2327145.777020733</v>
+        <v>2430889.568910116</v>
       </c>
     </row>
     <row r="3">
@@ -21237,28 +21237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>716.4870148913728</v>
+        <v>764.2637455072785</v>
       </c>
       <c r="AB3" t="n">
-        <v>980.3291429506105</v>
+        <v>1045.699373539889</v>
       </c>
       <c r="AC3" t="n">
-        <v>886.7679054479971</v>
+        <v>945.89929297753</v>
       </c>
       <c r="AD3" t="n">
-        <v>716487.0148913729</v>
+        <v>764263.7455072785</v>
       </c>
       <c r="AE3" t="n">
-        <v>980329.1429506105</v>
+        <v>1045699.373539889</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.065750204379553e-06</v>
+        <v>3.876157631057594e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.477083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>886767.9054479972</v>
+        <v>945899.2929775299</v>
       </c>
     </row>
     <row r="4">
@@ -21343,28 +21343,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>542.116873413704</v>
+        <v>577.992114180057</v>
       </c>
       <c r="AB4" t="n">
-        <v>741.7482227131434</v>
+        <v>790.8343098335883</v>
       </c>
       <c r="AC4" t="n">
-        <v>670.9568133875691</v>
+        <v>715.3581932459946</v>
       </c>
       <c r="AD4" t="n">
-        <v>542116.873413704</v>
+        <v>577992.114180057</v>
       </c>
       <c r="AE4" t="n">
-        <v>741748.2227131433</v>
+        <v>790834.3098335883</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.389728398218867e-06</v>
+        <v>4.484067796422282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.462499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>670956.8133875692</v>
+        <v>715358.1932459946</v>
       </c>
     </row>
     <row r="5">
@@ -21449,28 +21449,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>464.9903158475028</v>
+        <v>500.8655566138556</v>
       </c>
       <c r="AB5" t="n">
-        <v>636.2202640674894</v>
+        <v>685.3063511879342</v>
       </c>
       <c r="AC5" t="n">
-        <v>575.5002950056362</v>
+        <v>619.9016748640619</v>
       </c>
       <c r="AD5" t="n">
-        <v>464990.3158475028</v>
+        <v>500865.5566138556</v>
       </c>
       <c r="AE5" t="n">
-        <v>636220.2640674894</v>
+        <v>685306.3511879342</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.555646750121015e-06</v>
+        <v>4.795395702620491e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.04375</v>
       </c>
       <c r="AH5" t="n">
-        <v>575500.2950056362</v>
+        <v>619901.6748640619</v>
       </c>
     </row>
     <row r="6">
@@ -21555,28 +21555,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>461.4770308498356</v>
+        <v>497.3522716161883</v>
       </c>
       <c r="AB6" t="n">
-        <v>631.4132325384859</v>
+        <v>680.4993196589307</v>
       </c>
       <c r="AC6" t="n">
-        <v>571.1520398190496</v>
+        <v>615.5534196774754</v>
       </c>
       <c r="AD6" t="n">
-        <v>461477.0308498355</v>
+        <v>497352.2716161883</v>
       </c>
       <c r="AE6" t="n">
-        <v>631413.2325384859</v>
+        <v>680499.3196589308</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.567656925727873e-06</v>
+        <v>4.817931502801059e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>571152.0398190496</v>
+        <v>615553.4196774754</v>
       </c>
     </row>
     <row r="7">
@@ -21661,28 +21661,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>462.1679309291021</v>
+        <v>498.0431716954549</v>
       </c>
       <c r="AB7" t="n">
-        <v>632.3585525072986</v>
+        <v>681.4446396277434</v>
       </c>
       <c r="AC7" t="n">
-        <v>572.0071397768039</v>
+        <v>616.4085196352295</v>
       </c>
       <c r="AD7" t="n">
-        <v>462167.9309291021</v>
+        <v>498043.1716954549</v>
       </c>
       <c r="AE7" t="n">
-        <v>632358.5525072985</v>
+        <v>681444.6396277434</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.571956865142674e-06</v>
+        <v>4.825999875705212e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.005208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>572007.1397768039</v>
+        <v>616408.5196352295</v>
       </c>
     </row>
   </sheetData>
@@ -21958,28 +21958,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>430.908599141252</v>
+        <v>485.6990752115091</v>
       </c>
       <c r="AB2" t="n">
-        <v>589.5881556907732</v>
+        <v>664.5549022353068</v>
       </c>
       <c r="AC2" t="n">
-        <v>533.3186896038187</v>
+        <v>601.1307150746317</v>
       </c>
       <c r="AD2" t="n">
-        <v>430908.599141252</v>
+        <v>485699.0752115091</v>
       </c>
       <c r="AE2" t="n">
-        <v>589588.1556907732</v>
+        <v>664554.9022353068</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.995348552775268e-06</v>
+        <v>4.990215304423766e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.946875</v>
       </c>
       <c r="AH2" t="n">
-        <v>533318.6896038187</v>
+        <v>601130.7150746316</v>
       </c>
     </row>
   </sheetData>
@@ -22255,28 +22255,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>593.2016778452727</v>
+        <v>647.1007310078442</v>
       </c>
       <c r="AB2" t="n">
-        <v>811.6447058389288</v>
+        <v>885.3917682343636</v>
       </c>
       <c r="AC2" t="n">
-        <v>734.1824742641599</v>
+        <v>800.8912205292264</v>
       </c>
       <c r="AD2" t="n">
-        <v>593201.6778452727</v>
+        <v>647100.7310078442</v>
       </c>
       <c r="AE2" t="n">
-        <v>811644.7058389288</v>
+        <v>885391.7682343635</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.138083556843246e-06</v>
+        <v>4.402920100683886e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.955208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>734182.4742641598</v>
+        <v>800891.2205292265</v>
       </c>
     </row>
     <row r="3">
@@ -22361,28 +22361,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>391.5466891479788</v>
+        <v>423.903278724987</v>
       </c>
       <c r="AB3" t="n">
-        <v>535.7314539130656</v>
+        <v>580.0031672443145</v>
       </c>
       <c r="AC3" t="n">
-        <v>484.6019958554199</v>
+        <v>524.6484790020742</v>
       </c>
       <c r="AD3" t="n">
-        <v>391546.6891479788</v>
+        <v>423903.278724987</v>
       </c>
       <c r="AE3" t="n">
-        <v>535731.4539130656</v>
+        <v>580003.1672443144</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.636474377547866e-06</v>
+        <v>5.429248073439346e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.452083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>484601.9958554199</v>
+        <v>524648.4790020742</v>
       </c>
     </row>
     <row r="4">
@@ -22467,28 +22467,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>392.8501507495483</v>
+        <v>425.2067403265565</v>
       </c>
       <c r="AB4" t="n">
-        <v>537.5149075810006</v>
+        <v>581.7866209122493</v>
       </c>
       <c r="AC4" t="n">
-        <v>486.2152392083801</v>
+        <v>526.2617223550343</v>
       </c>
       <c r="AD4" t="n">
-        <v>392850.1507495483</v>
+        <v>425206.7403265565</v>
       </c>
       <c r="AE4" t="n">
-        <v>537514.9075810006</v>
+        <v>581786.6209122493</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.640230271675063e-06</v>
+        <v>5.436982524085929e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.442708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>486215.2392083801</v>
+        <v>526261.7223550343</v>
       </c>
     </row>
     <row r="5">
@@ -22573,28 +22573,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>394.2417302858906</v>
+        <v>426.5983198628988</v>
       </c>
       <c r="AB5" t="n">
-        <v>539.4189280947803</v>
+        <v>583.6906414260291</v>
       </c>
       <c r="AC5" t="n">
-        <v>487.9375426766342</v>
+        <v>527.9840258232886</v>
       </c>
       <c r="AD5" t="n">
-        <v>394241.7302858906</v>
+        <v>426598.3198628988</v>
       </c>
       <c r="AE5" t="n">
-        <v>539418.9280947803</v>
+        <v>583690.641426029</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.6438228660576e-06</v>
+        <v>5.444380694269619e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.434375</v>
       </c>
       <c r="AH5" t="n">
-        <v>487937.5426766342</v>
+        <v>527984.0258232886</v>
       </c>
     </row>
   </sheetData>
@@ -22870,28 +22870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>897.5036583017659</v>
+        <v>953.6396027450417</v>
       </c>
       <c r="AB2" t="n">
-        <v>1228.004100355401</v>
+        <v>1304.811776085774</v>
       </c>
       <c r="AC2" t="n">
-        <v>1110.805112532061</v>
+        <v>1180.282371490977</v>
       </c>
       <c r="AD2" t="n">
-        <v>897503.6583017659</v>
+        <v>953639.6027450416</v>
       </c>
       <c r="AE2" t="n">
-        <v>1228004.100355401</v>
+        <v>1304811.776085774</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.760422031385516e-06</v>
+        <v>3.487720158613434e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.303125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1110805.112532061</v>
+        <v>1180282.371490977</v>
       </c>
     </row>
     <row r="3">
@@ -22976,28 +22976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>449.8581205456771</v>
+        <v>483.5567911859772</v>
       </c>
       <c r="AB3" t="n">
-        <v>615.5157268701905</v>
+        <v>661.6237347206729</v>
       </c>
       <c r="AC3" t="n">
-        <v>556.7717697794471</v>
+        <v>598.4792940736751</v>
       </c>
       <c r="AD3" t="n">
-        <v>449858.1205456771</v>
+        <v>483556.7911859772</v>
       </c>
       <c r="AE3" t="n">
-        <v>615515.7268701905</v>
+        <v>661623.7347206729</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.528454685071168e-06</v>
+        <v>5.009334249425851e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.477083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>556771.7697794471</v>
+        <v>598479.2940736751</v>
       </c>
     </row>
     <row r="4">
@@ -23082,28 +23082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>412.8646649550726</v>
+        <v>446.5633355953727</v>
       </c>
       <c r="AB4" t="n">
-        <v>564.899648895048</v>
+        <v>611.0076567455307</v>
       </c>
       <c r="AC4" t="n">
-        <v>510.9864192461407</v>
+        <v>552.6939435403685</v>
       </c>
       <c r="AD4" t="n">
-        <v>412864.6649550726</v>
+        <v>446563.3355953727</v>
       </c>
       <c r="AE4" t="n">
-        <v>564899.6488950481</v>
+        <v>611007.6567455307</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.632850525817795e-06</v>
+        <v>5.216161630449278e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.220833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>510986.4192461406</v>
+        <v>552693.9435403686</v>
       </c>
     </row>
     <row r="5">
@@ -23188,28 +23188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>414.8257446865021</v>
+        <v>448.5244153268022</v>
       </c>
       <c r="AB5" t="n">
-        <v>567.5828847003216</v>
+        <v>613.6908925508042</v>
       </c>
       <c r="AC5" t="n">
-        <v>513.413570792104</v>
+        <v>555.1210950863319</v>
       </c>
       <c r="AD5" t="n">
-        <v>414825.7446865021</v>
+        <v>448524.4153268022</v>
       </c>
       <c r="AE5" t="n">
-        <v>567582.8847003216</v>
+        <v>613690.8925508042</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.633007748469522e-06</v>
+        <v>5.216473117468892e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.219791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>513413.570792104</v>
+        <v>555121.0950863319</v>
       </c>
     </row>
     <row r="6">
@@ -23294,28 +23294,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>415.9875542750971</v>
+        <v>449.6862249153972</v>
       </c>
       <c r="AB6" t="n">
-        <v>569.1725238348589</v>
+        <v>615.2805316853415</v>
       </c>
       <c r="AC6" t="n">
-        <v>514.8514969987136</v>
+        <v>556.5590212929417</v>
       </c>
       <c r="AD6" t="n">
-        <v>415987.5542750971</v>
+        <v>449686.2249153972</v>
       </c>
       <c r="AE6" t="n">
-        <v>569172.5238348589</v>
+        <v>615280.5316853415</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.636781092110966e-06</v>
+        <v>5.223948805939618e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.211458333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>514851.4969987136</v>
+        <v>556559.0212929416</v>
       </c>
     </row>
   </sheetData>
